--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c107_S_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c107_S_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -535,10 +547,10 @@
       <c r="I14">
         <f>((C14-C13)^2+(D14- D13)^2)^.5</f>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L14" t="n">
@@ -582,28 +594,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="2">
+      <c r="A16" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B16" t="s" s="2">
+      <c r="B16" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C16" t="s" s="2">
+      <c r="C16" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D16" t="s" s="2">
+      <c r="D16" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E16" t="s" s="2">
+      <c r="E16" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="F16" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G16" t="s" s="2">
+      <c r="G16" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H16" t="s" s="2">
+      <c r="H16" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -628,28 +640,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="B18" t="s" s="2">
+      <c r="B18" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C18" t="s" s="2">
+      <c r="C18" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D18" t="s" s="2">
+      <c r="D18" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="F18" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="G18" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H18" t="s" s="2">
+      <c r="H18" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I18" t="s" s="2">
+      <c r="I18" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -911,10 +923,10 @@
       <c r="I27">
         <f>((C27-C26)^2+(D27- D26)^2)^.5</f>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="J27" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K27" s="2" t="s">
+      <c r="K27" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L27" t="n">
@@ -958,28 +970,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="2">
+      <c r="A29" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B29" t="s" s="2">
+      <c r="B29" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C29" t="s" s="2">
+      <c r="C29" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D29" t="s" s="2">
+      <c r="D29" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E29" t="s" s="2">
+      <c r="E29" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F29" t="s" s="2">
+      <c r="F29" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G29" t="s" s="2">
+      <c r="G29" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H29" t="s" s="2">
+      <c r="H29" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1004,28 +1016,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="B31" t="s" s="2">
+      <c r="B31" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C31" t="s" s="2">
+      <c r="C31" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D31" t="s" s="2">
+      <c r="D31" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E31" t="s" s="2">
+      <c r="E31" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F31" t="s" s="2">
+      <c r="F31" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G31" t="s" s="2">
+      <c r="G31" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H31" t="s" s="2">
+      <c r="H31" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I31" t="s" s="2">
+      <c r="I31" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1287,10 +1299,10 @@
       <c r="I40">
         <f>((C40-C39)^2+(D40- D39)^2)^.5</f>
       </c>
-      <c r="J40" s="2" t="s">
+      <c r="J40" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K40" s="2" t="s">
+      <c r="K40" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L40" t="n">
@@ -1334,28 +1346,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="2">
+      <c r="A42" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B42" t="s" s="2">
+      <c r="B42" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C42" t="s" s="2">
+      <c r="C42" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D42" t="s" s="2">
+      <c r="D42" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E42" t="s" s="2">
+      <c r="E42" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F42" t="s" s="2">
+      <c r="F42" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G42" t="s" s="2">
+      <c r="G42" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H42" t="s" s="2">
+      <c r="H42" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1380,28 +1392,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="B44" t="s" s="2">
+      <c r="B44" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C44" t="s" s="2">
+      <c r="C44" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D44" t="s" s="2">
+      <c r="D44" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E44" t="s" s="2">
+      <c r="E44" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F44" t="s" s="2">
+      <c r="F44" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G44" t="s" s="2">
+      <c r="G44" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H44" t="s" s="2">
+      <c r="H44" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I44" t="s" s="2">
+      <c r="I44" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1634,10 +1646,10 @@
       <c r="I52">
         <f>((C52-C51)^2+(D52- D51)^2)^.5</f>
       </c>
-      <c r="J52" s="2" t="s">
+      <c r="J52" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K52" s="2" t="s">
+      <c r="K52" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L52" t="n">
@@ -1681,28 +1693,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="s" s="2">
+      <c r="A54" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B54" t="s" s="2">
+      <c r="B54" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C54" t="s" s="2">
+      <c r="C54" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D54" t="s" s="2">
+      <c r="D54" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E54" t="s" s="2">
+      <c r="E54" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F54" t="s" s="2">
+      <c r="F54" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G54" t="s" s="2">
+      <c r="G54" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H54" t="s" s="2">
+      <c r="H54" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1727,28 +1739,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="B56" t="s" s="2">
+      <c r="B56" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C56" t="s" s="2">
+      <c r="C56" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D56" t="s" s="2">
+      <c r="D56" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E56" t="s" s="2">
+      <c r="E56" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F56" t="s" s="2">
+      <c r="F56" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G56" t="s" s="2">
+      <c r="G56" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H56" t="s" s="2">
+      <c r="H56" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I56" t="s" s="2">
+      <c r="I56" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1894,10 +1906,10 @@
       <c r="I61">
         <f>((C61-C60)^2+(D61- D60)^2)^.5</f>
       </c>
-      <c r="J61" s="2" t="s">
+      <c r="J61" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K61" s="2" t="s">
+      <c r="K61" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L61" t="n">
@@ -1941,28 +1953,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="s" s="2">
+      <c r="A63" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B63" t="s" s="2">
+      <c r="B63" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C63" t="s" s="2">
+      <c r="C63" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D63" t="s" s="2">
+      <c r="D63" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E63" t="s" s="2">
+      <c r="E63" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F63" t="s" s="2">
+      <c r="F63" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G63" t="s" s="2">
+      <c r="G63" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H63" t="s" s="2">
+      <c r="H63" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1987,28 +1999,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="B65" t="s" s="2">
+      <c r="B65" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C65" t="s" s="2">
+      <c r="C65" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D65" t="s" s="2">
+      <c r="D65" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E65" t="s" s="2">
+      <c r="E65" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F65" t="s" s="2">
+      <c r="F65" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G65" t="s" s="2">
+      <c r="G65" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H65" t="s" s="2">
+      <c r="H65" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I65" t="s" s="2">
+      <c r="I65" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2270,10 +2282,10 @@
       <c r="I74">
         <f>((C74-C73)^2+(D74- D73)^2)^.5</f>
       </c>
-      <c r="J74" s="2" t="s">
+      <c r="J74" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K74" s="2" t="s">
+      <c r="K74" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L74" t="n">
@@ -2317,28 +2329,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s" s="2">
+      <c r="A76" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B76" t="s" s="2">
+      <c r="B76" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C76" t="s" s="2">
+      <c r="C76" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D76" t="s" s="2">
+      <c r="D76" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E76" t="s" s="2">
+      <c r="E76" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F76" t="s" s="2">
+      <c r="F76" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G76" t="s" s="2">
+      <c r="G76" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H76" t="s" s="2">
+      <c r="H76" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2363,28 +2375,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="B78" t="s" s="2">
+      <c r="B78" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C78" t="s" s="2">
+      <c r="C78" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D78" t="s" s="2">
+      <c r="D78" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E78" t="s" s="2">
+      <c r="E78" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F78" t="s" s="2">
+      <c r="F78" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G78" t="s" s="2">
+      <c r="G78" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H78" t="s" s="2">
+      <c r="H78" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I78" t="s" s="2">
+      <c r="I78" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2617,10 +2629,10 @@
       <c r="I86">
         <f>((C86-C85)^2+(D86- D85)^2)^.5</f>
       </c>
-      <c r="J86" s="2" t="s">
+      <c r="J86" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K86" s="2" t="s">
+      <c r="K86" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L86" t="n">
@@ -2664,28 +2676,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="s" s="2">
+      <c r="A88" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B88" t="s" s="2">
+      <c r="B88" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C88" t="s" s="2">
+      <c r="C88" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D88" t="s" s="2">
+      <c r="D88" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E88" t="s" s="2">
+      <c r="E88" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F88" t="s" s="2">
+      <c r="F88" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G88" t="s" s="2">
+      <c r="G88" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H88" t="s" s="2">
+      <c r="H88" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2710,28 +2722,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="B90" t="s" s="2">
+      <c r="B90" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C90" t="s" s="2">
+      <c r="C90" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D90" t="s" s="2">
+      <c r="D90" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E90" t="s" s="2">
+      <c r="E90" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F90" t="s" s="2">
+      <c r="F90" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G90" t="s" s="2">
+      <c r="G90" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H90" t="s" s="2">
+      <c r="H90" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I90" t="s" s="2">
+      <c r="I90" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2906,10 +2918,10 @@
       <c r="I96">
         <f>((C96-C95)^2+(D96- D95)^2)^.5</f>
       </c>
-      <c r="J96" s="2" t="s">
+      <c r="J96" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K96" s="2" t="s">
+      <c r="K96" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L96" t="n">
@@ -2953,28 +2965,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="s" s="2">
+      <c r="A98" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B98" t="s" s="2">
+      <c r="B98" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C98" t="s" s="2">
+      <c r="C98" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D98" t="s" s="2">
+      <c r="D98" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E98" t="s" s="2">
+      <c r="E98" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F98" t="s" s="2">
+      <c r="F98" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G98" t="s" s="2">
+      <c r="G98" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H98" t="s" s="2">
+      <c r="H98" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2999,28 +3011,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="B100" t="s" s="2">
+      <c r="B100" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C100" t="s" s="2">
+      <c r="C100" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D100" t="s" s="2">
+      <c r="D100" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E100" t="s" s="2">
+      <c r="E100" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F100" t="s" s="2">
+      <c r="F100" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G100" t="s" s="2">
+      <c r="G100" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H100" t="s" s="2">
+      <c r="H100" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I100" t="s" s="2">
+      <c r="I100" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3253,10 +3265,10 @@
       <c r="I108">
         <f>((C108-C107)^2+(D108- D107)^2)^.5</f>
       </c>
-      <c r="J108" s="2" t="s">
+      <c r="J108" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K108" s="2" t="s">
+      <c r="K108" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L108" t="n">
@@ -3300,28 +3312,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="s" s="2">
+      <c r="A110" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B110" t="s" s="2">
+      <c r="B110" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C110" t="s" s="2">
+      <c r="C110" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D110" t="s" s="2">
+      <c r="D110" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E110" t="s" s="2">
+      <c r="E110" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F110" t="s" s="2">
+      <c r="F110" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G110" t="s" s="2">
+      <c r="G110" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H110" t="s" s="2">
+      <c r="H110" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3346,28 +3358,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="B112" t="s" s="2">
+      <c r="B112" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C112" t="s" s="2">
+      <c r="C112" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D112" t="s" s="2">
+      <c r="D112" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E112" t="s" s="2">
+      <c r="E112" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F112" t="s" s="2">
+      <c r="F112" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G112" t="s" s="2">
+      <c r="G112" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H112" t="s" s="2">
+      <c r="H112" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I112" t="s" s="2">
+      <c r="I112" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3629,10 +3641,10 @@
       <c r="I121">
         <f>((C121-C120)^2+(D121- D120)^2)^.5</f>
       </c>
-      <c r="J121" s="2" t="s">
+      <c r="J121" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K121" s="2" t="s">
+      <c r="K121" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L121" t="n">
@@ -3676,28 +3688,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="s" s="2">
+      <c r="A123" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B123" t="s" s="2">
+      <c r="B123" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C123" t="s" s="2">
+      <c r="C123" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D123" t="s" s="2">
+      <c r="D123" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E123" t="s" s="2">
+      <c r="E123" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F123" t="s" s="2">
+      <c r="F123" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G123" t="s" s="2">
+      <c r="G123" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H123" t="s" s="2">
+      <c r="H123" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3722,28 +3734,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="B125" t="s" s="2">
+      <c r="B125" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C125" t="s" s="2">
+      <c r="C125" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D125" t="s" s="2">
+      <c r="D125" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E125" t="s" s="2">
+      <c r="E125" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F125" t="s" s="2">
+      <c r="F125" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G125" t="s" s="2">
+      <c r="G125" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H125" t="s" s="2">
+      <c r="H125" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I125" t="s" s="2">
+      <c r="I125" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3976,10 +3988,10 @@
       <c r="I133">
         <f>((C133-C132)^2+(D133- D132)^2)^.5</f>
       </c>
-      <c r="J133" s="2" t="s">
+      <c r="J133" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K133" s="2" t="s">
+      <c r="K133" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L133" t="n">
@@ -4023,28 +4035,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="s" s="2">
+      <c r="A135" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B135" t="s" s="2">
+      <c r="B135" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C135" t="s" s="2">
+      <c r="C135" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D135" t="s" s="2">
+      <c r="D135" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E135" t="s" s="2">
+      <c r="E135" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F135" t="s" s="2">
+      <c r="F135" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G135" t="s" s="2">
+      <c r="G135" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H135" t="s" s="2">
+      <c r="H135" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4069,28 +4081,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C137" t="s" s="2">
+      <c r="C137" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D137" t="s" s="2">
+      <c r="D137" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I137" t="s" s="2">
+      <c r="I137" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4323,10 +4335,10 @@
       <c r="I145">
         <f>((C145-C144)^2+(D145- D144)^2)^.5</f>
       </c>
-      <c r="J145" s="2" t="s">
+      <c r="J145" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K145" s="2" t="s">
+      <c r="K145" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L145" t="n">
@@ -4370,28 +4382,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="s" s="2">
+      <c r="A147" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B147" t="s" s="2">
+      <c r="B147" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C147" t="s" s="2">
+      <c r="C147" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D147" t="s" s="2">
+      <c r="D147" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E147" t="s" s="2">
+      <c r="E147" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F147" t="s" s="2">
+      <c r="F147" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G147" t="s" s="2">
+      <c r="G147" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H147" t="s" s="2">
+      <c r="H147" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4416,28 +4428,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="B149" t="s" s="2">
+      <c r="B149" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C149" t="s" s="2">
+      <c r="C149" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D149" t="s" s="2">
+      <c r="D149" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E149" t="s" s="2">
+      <c r="E149" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F149" t="s" s="2">
+      <c r="F149" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G149" t="s" s="2">
+      <c r="G149" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H149" t="s" s="2">
+      <c r="H149" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I149" t="s" s="2">
+      <c r="I149" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4641,10 +4653,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="2" t="s">
+      <c r="J156" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K156" s="2" t="s">
+      <c r="K156" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
@@ -4688,28 +4700,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="s" s="2">
+      <c r="A158" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B158" t="s" s="2">
+      <c r="B158" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C158" t="s" s="2">
+      <c r="C158" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D158" t="s" s="2">
+      <c r="D158" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E158" t="s" s="2">
+      <c r="E158" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F158" t="s" s="2">
+      <c r="F158" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G158" t="s" s="2">
+      <c r="G158" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H158" t="s" s="2">
+      <c r="H158" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4734,28 +4746,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="B160" t="s" s="2">
+      <c r="B160" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C160" t="s" s="2">
+      <c r="C160" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D160" t="s" s="2">
+      <c r="D160" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E160" t="s" s="2">
+      <c r="E160" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F160" t="s" s="2">
+      <c r="F160" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G160" t="s" s="2">
+      <c r="G160" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H160" t="s" s="2">
+      <c r="H160" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I160" t="s" s="2">
+      <c r="I160" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4930,10 +4942,10 @@
       <c r="I166">
         <f>((C166-C165)^2+(D166- D165)^2)^.5</f>
       </c>
-      <c r="J166" s="2" t="s">
+      <c r="J166" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K166" s="2" t="s">
+      <c r="K166" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L166" t="n">
@@ -4977,28 +4989,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="s" s="2">
+      <c r="A168" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B168" t="s" s="2">
+      <c r="B168" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C168" t="s" s="2">
+      <c r="C168" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D168" t="s" s="2">
+      <c r="D168" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E168" t="s" s="2">
+      <c r="E168" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F168" t="s" s="2">
+      <c r="F168" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G168" t="s" s="2">
+      <c r="G168" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H168" t="s" s="2">
+      <c r="H168" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5023,28 +5035,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="B170" t="s" s="2">
+      <c r="B170" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C170" t="s" s="2">
+      <c r="C170" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D170" t="s" s="2">
+      <c r="D170" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E170" t="s" s="2">
+      <c r="E170" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F170" t="s" s="2">
+      <c r="F170" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G170" t="s" s="2">
+      <c r="G170" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H170" t="s" s="2">
+      <c r="H170" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I170" t="s" s="2">
+      <c r="I170" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5190,10 +5202,10 @@
       <c r="I175">
         <f>((C175-C174)^2+(D175- D174)^2)^.5</f>
       </c>
-      <c r="J175" s="2" t="s">
+      <c r="J175" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K175" s="2" t="s">
+      <c r="K175" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L175" t="n">
@@ -5237,28 +5249,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="s" s="2">
+      <c r="A177" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B177" t="s" s="2">
+      <c r="B177" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C177" t="s" s="2">
+      <c r="C177" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D177" t="s" s="2">
+      <c r="D177" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E177" t="s" s="2">
+      <c r="E177" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F177" t="s" s="2">
+      <c r="F177" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G177" t="s" s="2">
+      <c r="G177" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H177" t="s" s="2">
+      <c r="H177" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5283,28 +5295,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="B179" t="s" s="2">
+      <c r="B179" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C179" t="s" s="2">
+      <c r="C179" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D179" t="s" s="2">
+      <c r="D179" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E179" t="s" s="2">
+      <c r="E179" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F179" t="s" s="2">
+      <c r="F179" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G179" t="s" s="2">
+      <c r="G179" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H179" t="s" s="2">
+      <c r="H179" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I179" t="s" s="2">
+      <c r="I179" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5363,10 +5375,10 @@
       <c r="I181">
         <f>((C181-C180)^2+(D181- D180)^2)^.5</f>
       </c>
-      <c r="J181" s="2" t="s">
+      <c r="J181" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K181" s="2" t="s">
+      <c r="K181" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L181" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c107_S_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c107_S_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3648" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,53 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="13">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -143,12 +183,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -171,26 +219,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true">
-      <c r="A1" t="s" s="4">
+    <row r="1" s="12" customFormat="true">
+      <c r="A1" t="s" s="12">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="4">
+      <c r="B1" t="s" s="12">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="4">
+      <c r="C1" t="s" s="12">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="4">
+      <c r="D1" t="s" s="12">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="4">
+      <c r="E1" t="s" s="12">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="4">
+      <c r="F1" t="s" s="12">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="4">
+      <c r="G1" t="s" s="12">
         <v>7</v>
       </c>
     </row>
@@ -218,28 +266,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="4">
+      <c r="A3" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="4">
+      <c r="B3" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="4">
+      <c r="C3" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="4">
+      <c r="D3" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="4">
+      <c r="E3" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="4">
+      <c r="F3" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="4">
+      <c r="G3" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="4">
+      <c r="H3" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -264,28 +312,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="4">
+      <c r="B5" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="4">
+      <c r="C5" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="4">
+      <c r="D5" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="4">
+      <c r="E5" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="4">
+      <c r="F5" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="4">
+      <c r="G5" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="4">
+      <c r="H5" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="4">
+      <c r="I5" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -547,10 +595,10 @@
       <c r="I14">
         <f>((C14-C13)^2+(D14- D13)^2)^.5</f>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L14" t="n">
@@ -594,28 +642,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="4">
+      <c r="A16" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B16" t="s" s="4">
+      <c r="B16" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C16" t="s" s="4">
+      <c r="C16" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D16" t="s" s="4">
+      <c r="D16" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E16" t="s" s="4">
+      <c r="E16" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F16" t="s" s="4">
+      <c r="F16" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G16" t="s" s="4">
+      <c r="G16" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H16" t="s" s="4">
+      <c r="H16" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -640,28 +688,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="B18" t="s" s="4">
+      <c r="B18" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C18" t="s" s="4">
+      <c r="C18" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D18" t="s" s="4">
+      <c r="D18" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E18" t="s" s="4">
+      <c r="E18" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F18" t="s" s="4">
+      <c r="F18" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G18" t="s" s="4">
+      <c r="G18" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H18" t="s" s="4">
+      <c r="H18" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I18" t="s" s="4">
+      <c r="I18" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -923,10 +971,10 @@
       <c r="I27">
         <f>((C27-C26)^2+(D27- D26)^2)^.5</f>
       </c>
-      <c r="J27" s="4" t="s">
+      <c r="J27" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K27" s="4" t="s">
+      <c r="K27" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L27" t="n">
@@ -970,28 +1018,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="4">
+      <c r="A29" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B29" t="s" s="4">
+      <c r="B29" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C29" t="s" s="4">
+      <c r="C29" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D29" t="s" s="4">
+      <c r="D29" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E29" t="s" s="4">
+      <c r="E29" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F29" t="s" s="4">
+      <c r="F29" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G29" t="s" s="4">
+      <c r="G29" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H29" t="s" s="4">
+      <c r="H29" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1016,28 +1064,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="B31" t="s" s="4">
+      <c r="B31" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C31" t="s" s="4">
+      <c r="C31" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D31" t="s" s="4">
+      <c r="D31" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E31" t="s" s="4">
+      <c r="E31" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F31" t="s" s="4">
+      <c r="F31" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G31" t="s" s="4">
+      <c r="G31" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H31" t="s" s="4">
+      <c r="H31" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I31" t="s" s="4">
+      <c r="I31" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1299,10 +1347,10 @@
       <c r="I40">
         <f>((C40-C39)^2+(D40- D39)^2)^.5</f>
       </c>
-      <c r="J40" s="4" t="s">
+      <c r="J40" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K40" s="4" t="s">
+      <c r="K40" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L40" t="n">
@@ -1346,28 +1394,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="4">
+      <c r="A42" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B42" t="s" s="4">
+      <c r="B42" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C42" t="s" s="4">
+      <c r="C42" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D42" t="s" s="4">
+      <c r="D42" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E42" t="s" s="4">
+      <c r="E42" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F42" t="s" s="4">
+      <c r="F42" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G42" t="s" s="4">
+      <c r="G42" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H42" t="s" s="4">
+      <c r="H42" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1392,28 +1440,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="B44" t="s" s="4">
+      <c r="B44" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C44" t="s" s="4">
+      <c r="C44" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D44" t="s" s="4">
+      <c r="D44" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E44" t="s" s="4">
+      <c r="E44" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F44" t="s" s="4">
+      <c r="F44" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G44" t="s" s="4">
+      <c r="G44" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H44" t="s" s="4">
+      <c r="H44" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I44" t="s" s="4">
+      <c r="I44" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1646,10 +1694,10 @@
       <c r="I52">
         <f>((C52-C51)^2+(D52- D51)^2)^.5</f>
       </c>
-      <c r="J52" s="4" t="s">
+      <c r="J52" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K52" s="4" t="s">
+      <c r="K52" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L52" t="n">
@@ -1693,28 +1741,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="s" s="4">
+      <c r="A54" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B54" t="s" s="4">
+      <c r="B54" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C54" t="s" s="4">
+      <c r="C54" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D54" t="s" s="4">
+      <c r="D54" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E54" t="s" s="4">
+      <c r="E54" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F54" t="s" s="4">
+      <c r="F54" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G54" t="s" s="4">
+      <c r="G54" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H54" t="s" s="4">
+      <c r="H54" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1739,28 +1787,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="B56" t="s" s="4">
+      <c r="B56" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C56" t="s" s="4">
+      <c r="C56" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D56" t="s" s="4">
+      <c r="D56" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E56" t="s" s="4">
+      <c r="E56" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F56" t="s" s="4">
+      <c r="F56" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G56" t="s" s="4">
+      <c r="G56" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H56" t="s" s="4">
+      <c r="H56" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I56" t="s" s="4">
+      <c r="I56" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1906,10 +1954,10 @@
       <c r="I61">
         <f>((C61-C60)^2+(D61- D60)^2)^.5</f>
       </c>
-      <c r="J61" s="4" t="s">
+      <c r="J61" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K61" s="4" t="s">
+      <c r="K61" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L61" t="n">
@@ -1953,28 +2001,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="s" s="4">
+      <c r="A63" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B63" t="s" s="4">
+      <c r="B63" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C63" t="s" s="4">
+      <c r="C63" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D63" t="s" s="4">
+      <c r="D63" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E63" t="s" s="4">
+      <c r="E63" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F63" t="s" s="4">
+      <c r="F63" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G63" t="s" s="4">
+      <c r="G63" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H63" t="s" s="4">
+      <c r="H63" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1999,28 +2047,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="B65" t="s" s="4">
+      <c r="B65" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C65" t="s" s="4">
+      <c r="C65" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D65" t="s" s="4">
+      <c r="D65" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E65" t="s" s="4">
+      <c r="E65" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F65" t="s" s="4">
+      <c r="F65" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G65" t="s" s="4">
+      <c r="G65" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H65" t="s" s="4">
+      <c r="H65" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I65" t="s" s="4">
+      <c r="I65" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2282,10 +2330,10 @@
       <c r="I74">
         <f>((C74-C73)^2+(D74- D73)^2)^.5</f>
       </c>
-      <c r="J74" s="4" t="s">
+      <c r="J74" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K74" s="4" t="s">
+      <c r="K74" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L74" t="n">
@@ -2329,28 +2377,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s" s="4">
+      <c r="A76" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B76" t="s" s="4">
+      <c r="B76" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C76" t="s" s="4">
+      <c r="C76" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D76" t="s" s="4">
+      <c r="D76" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E76" t="s" s="4">
+      <c r="E76" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F76" t="s" s="4">
+      <c r="F76" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G76" t="s" s="4">
+      <c r="G76" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H76" t="s" s="4">
+      <c r="H76" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2375,28 +2423,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="B78" t="s" s="4">
+      <c r="B78" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C78" t="s" s="4">
+      <c r="C78" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D78" t="s" s="4">
+      <c r="D78" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E78" t="s" s="4">
+      <c r="E78" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F78" t="s" s="4">
+      <c r="F78" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G78" t="s" s="4">
+      <c r="G78" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H78" t="s" s="4">
+      <c r="H78" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I78" t="s" s="4">
+      <c r="I78" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2629,10 +2677,10 @@
       <c r="I86">
         <f>((C86-C85)^2+(D86- D85)^2)^.5</f>
       </c>
-      <c r="J86" s="4" t="s">
+      <c r="J86" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K86" s="4" t="s">
+      <c r="K86" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L86" t="n">
@@ -2676,28 +2724,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="s" s="4">
+      <c r="A88" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B88" t="s" s="4">
+      <c r="B88" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C88" t="s" s="4">
+      <c r="C88" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D88" t="s" s="4">
+      <c r="D88" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E88" t="s" s="4">
+      <c r="E88" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F88" t="s" s="4">
+      <c r="F88" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G88" t="s" s="4">
+      <c r="G88" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H88" t="s" s="4">
+      <c r="H88" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2722,28 +2770,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="B90" t="s" s="4">
+      <c r="B90" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C90" t="s" s="4">
+      <c r="C90" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D90" t="s" s="4">
+      <c r="D90" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E90" t="s" s="4">
+      <c r="E90" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F90" t="s" s="4">
+      <c r="F90" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G90" t="s" s="4">
+      <c r="G90" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H90" t="s" s="4">
+      <c r="H90" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I90" t="s" s="4">
+      <c r="I90" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2918,10 +2966,10 @@
       <c r="I96">
         <f>((C96-C95)^2+(D96- D95)^2)^.5</f>
       </c>
-      <c r="J96" s="4" t="s">
+      <c r="J96" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K96" s="4" t="s">
+      <c r="K96" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L96" t="n">
@@ -2965,28 +3013,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="s" s="4">
+      <c r="A98" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B98" t="s" s="4">
+      <c r="B98" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C98" t="s" s="4">
+      <c r="C98" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D98" t="s" s="4">
+      <c r="D98" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E98" t="s" s="4">
+      <c r="E98" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F98" t="s" s="4">
+      <c r="F98" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G98" t="s" s="4">
+      <c r="G98" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H98" t="s" s="4">
+      <c r="H98" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3011,28 +3059,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="B100" t="s" s="4">
+      <c r="B100" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C100" t="s" s="4">
+      <c r="C100" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D100" t="s" s="4">
+      <c r="D100" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E100" t="s" s="4">
+      <c r="E100" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F100" t="s" s="4">
+      <c r="F100" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G100" t="s" s="4">
+      <c r="G100" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H100" t="s" s="4">
+      <c r="H100" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I100" t="s" s="4">
+      <c r="I100" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3265,10 +3313,10 @@
       <c r="I108">
         <f>((C108-C107)^2+(D108- D107)^2)^.5</f>
       </c>
-      <c r="J108" s="4" t="s">
+      <c r="J108" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K108" s="4" t="s">
+      <c r="K108" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L108" t="n">
@@ -3312,28 +3360,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="s" s="4">
+      <c r="A110" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B110" t="s" s="4">
+      <c r="B110" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C110" t="s" s="4">
+      <c r="C110" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D110" t="s" s="4">
+      <c r="D110" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E110" t="s" s="4">
+      <c r="E110" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F110" t="s" s="4">
+      <c r="F110" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G110" t="s" s="4">
+      <c r="G110" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H110" t="s" s="4">
+      <c r="H110" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3358,28 +3406,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="B112" t="s" s="4">
+      <c r="B112" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C112" t="s" s="4">
+      <c r="C112" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D112" t="s" s="4">
+      <c r="D112" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E112" t="s" s="4">
+      <c r="E112" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F112" t="s" s="4">
+      <c r="F112" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G112" t="s" s="4">
+      <c r="G112" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H112" t="s" s="4">
+      <c r="H112" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I112" t="s" s="4">
+      <c r="I112" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3641,10 +3689,10 @@
       <c r="I121">
         <f>((C121-C120)^2+(D121- D120)^2)^.5</f>
       </c>
-      <c r="J121" s="4" t="s">
+      <c r="J121" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K121" s="4" t="s">
+      <c r="K121" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L121" t="n">
@@ -3688,28 +3736,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="s" s="4">
+      <c r="A123" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B123" t="s" s="4">
+      <c r="B123" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C123" t="s" s="4">
+      <c r="C123" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D123" t="s" s="4">
+      <c r="D123" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E123" t="s" s="4">
+      <c r="E123" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F123" t="s" s="4">
+      <c r="F123" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G123" t="s" s="4">
+      <c r="G123" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H123" t="s" s="4">
+      <c r="H123" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3734,28 +3782,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="B125" t="s" s="4">
+      <c r="B125" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C125" t="s" s="4">
+      <c r="C125" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D125" t="s" s="4">
+      <c r="D125" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E125" t="s" s="4">
+      <c r="E125" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F125" t="s" s="4">
+      <c r="F125" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G125" t="s" s="4">
+      <c r="G125" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H125" t="s" s="4">
+      <c r="H125" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I125" t="s" s="4">
+      <c r="I125" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3988,10 +4036,10 @@
       <c r="I133">
         <f>((C133-C132)^2+(D133- D132)^2)^.5</f>
       </c>
-      <c r="J133" s="4" t="s">
+      <c r="J133" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K133" s="4" t="s">
+      <c r="K133" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L133" t="n">
@@ -4035,28 +4083,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="s" s="4">
+      <c r="A135" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B135" t="s" s="4">
+      <c r="B135" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C135" t="s" s="4">
+      <c r="C135" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D135" t="s" s="4">
+      <c r="D135" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E135" t="s" s="4">
+      <c r="E135" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F135" t="s" s="4">
+      <c r="F135" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G135" t="s" s="4">
+      <c r="G135" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H135" t="s" s="4">
+      <c r="H135" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4081,28 +4129,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="B137" t="s" s="4">
+      <c r="B137" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C137" t="s" s="4">
+      <c r="C137" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D137" t="s" s="4">
+      <c r="D137" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E137" t="s" s="4">
+      <c r="E137" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F137" t="s" s="4">
+      <c r="F137" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G137" t="s" s="4">
+      <c r="G137" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H137" t="s" s="4">
+      <c r="H137" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I137" t="s" s="4">
+      <c r="I137" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4335,10 +4383,10 @@
       <c r="I145">
         <f>((C145-C144)^2+(D145- D144)^2)^.5</f>
       </c>
-      <c r="J145" s="4" t="s">
+      <c r="J145" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K145" s="4" t="s">
+      <c r="K145" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L145" t="n">
@@ -4382,28 +4430,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="s" s="4">
+      <c r="A147" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B147" t="s" s="4">
+      <c r="B147" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C147" t="s" s="4">
+      <c r="C147" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D147" t="s" s="4">
+      <c r="D147" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E147" t="s" s="4">
+      <c r="E147" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F147" t="s" s="4">
+      <c r="F147" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G147" t="s" s="4">
+      <c r="G147" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H147" t="s" s="4">
+      <c r="H147" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4428,28 +4476,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="B149" t="s" s="4">
+      <c r="B149" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C149" t="s" s="4">
+      <c r="C149" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D149" t="s" s="4">
+      <c r="D149" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E149" t="s" s="4">
+      <c r="E149" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F149" t="s" s="4">
+      <c r="F149" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G149" t="s" s="4">
+      <c r="G149" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H149" t="s" s="4">
+      <c r="H149" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I149" t="s" s="4">
+      <c r="I149" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4653,10 +4701,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="4" t="s">
+      <c r="J156" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K156" s="4" t="s">
+      <c r="K156" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
@@ -4700,28 +4748,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="s" s="4">
+      <c r="A158" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B158" t="s" s="4">
+      <c r="B158" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C158" t="s" s="4">
+      <c r="C158" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D158" t="s" s="4">
+      <c r="D158" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E158" t="s" s="4">
+      <c r="E158" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F158" t="s" s="4">
+      <c r="F158" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G158" t="s" s="4">
+      <c r="G158" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H158" t="s" s="4">
+      <c r="H158" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4746,28 +4794,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="B160" t="s" s="4">
+      <c r="B160" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C160" t="s" s="4">
+      <c r="C160" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D160" t="s" s="4">
+      <c r="D160" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E160" t="s" s="4">
+      <c r="E160" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F160" t="s" s="4">
+      <c r="F160" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G160" t="s" s="4">
+      <c r="G160" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H160" t="s" s="4">
+      <c r="H160" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I160" t="s" s="4">
+      <c r="I160" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4942,10 +4990,10 @@
       <c r="I166">
         <f>((C166-C165)^2+(D166- D165)^2)^.5</f>
       </c>
-      <c r="J166" s="4" t="s">
+      <c r="J166" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K166" s="4" t="s">
+      <c r="K166" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L166" t="n">
@@ -4989,28 +5037,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="s" s="4">
+      <c r="A168" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B168" t="s" s="4">
+      <c r="B168" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C168" t="s" s="4">
+      <c r="C168" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D168" t="s" s="4">
+      <c r="D168" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E168" t="s" s="4">
+      <c r="E168" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F168" t="s" s="4">
+      <c r="F168" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G168" t="s" s="4">
+      <c r="G168" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H168" t="s" s="4">
+      <c r="H168" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5035,28 +5083,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="B170" t="s" s="4">
+      <c r="B170" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C170" t="s" s="4">
+      <c r="C170" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D170" t="s" s="4">
+      <c r="D170" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E170" t="s" s="4">
+      <c r="E170" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F170" t="s" s="4">
+      <c r="F170" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G170" t="s" s="4">
+      <c r="G170" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H170" t="s" s="4">
+      <c r="H170" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I170" t="s" s="4">
+      <c r="I170" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5202,10 +5250,10 @@
       <c r="I175">
         <f>((C175-C174)^2+(D175- D174)^2)^.5</f>
       </c>
-      <c r="J175" s="4" t="s">
+      <c r="J175" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K175" s="4" t="s">
+      <c r="K175" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L175" t="n">
@@ -5249,28 +5297,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="s" s="4">
+      <c r="A177" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B177" t="s" s="4">
+      <c r="B177" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C177" t="s" s="4">
+      <c r="C177" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D177" t="s" s="4">
+      <c r="D177" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E177" t="s" s="4">
+      <c r="E177" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F177" t="s" s="4">
+      <c r="F177" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G177" t="s" s="4">
+      <c r="G177" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H177" t="s" s="4">
+      <c r="H177" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5295,28 +5343,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="B179" t="s" s="4">
+      <c r="B179" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C179" t="s" s="4">
+      <c r="C179" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D179" t="s" s="4">
+      <c r="D179" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E179" t="s" s="4">
+      <c r="E179" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F179" t="s" s="4">
+      <c r="F179" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G179" t="s" s="4">
+      <c r="G179" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H179" t="s" s="4">
+      <c r="H179" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I179" t="s" s="4">
+      <c r="I179" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5375,10 +5423,10 @@
       <c r="I181">
         <f>((C181-C180)^2+(D181- D180)^2)^.5</f>
       </c>
-      <c r="J181" s="4" t="s">
+      <c r="J181" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K181" s="4" t="s">
+      <c r="K181" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L181" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c107_S_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c107_S_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3648" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4560" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -183,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -197,6 +212,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -219,26 +237,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="true">
-      <c r="A1" t="s" s="12">
+    <row r="1" s="15" customFormat="true">
+      <c r="A1" t="s" s="15">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="12">
+      <c r="B1" t="s" s="15">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="12">
+      <c r="C1" t="s" s="15">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="12">
+      <c r="D1" t="s" s="15">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="12">
+      <c r="E1" t="s" s="15">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="12">
+      <c r="F1" t="s" s="15">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="12">
+      <c r="G1" t="s" s="15">
         <v>7</v>
       </c>
     </row>
@@ -266,28 +284,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="12">
+      <c r="A3" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="12">
+      <c r="B3" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="12">
+      <c r="C3" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="12">
+      <c r="D3" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="12">
+      <c r="E3" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="12">
+      <c r="F3" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="12">
+      <c r="G3" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="12">
+      <c r="H3" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -312,28 +330,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="12">
+      <c r="B5" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="12">
+      <c r="C5" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="12">
+      <c r="D5" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="12">
+      <c r="E5" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="12">
+      <c r="F5" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="12">
+      <c r="G5" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="12">
+      <c r="H5" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="12">
+      <c r="I5" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -595,10 +613,10 @@
       <c r="I14">
         <f>((C14-C13)^2+(D14- D13)^2)^.5</f>
       </c>
-      <c r="J14" s="12" t="s">
+      <c r="J14" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="12" t="s">
+      <c r="K14" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L14" t="n">
@@ -642,28 +660,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="12">
+      <c r="A16" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B16" t="s" s="12">
+      <c r="B16" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C16" t="s" s="12">
+      <c r="C16" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D16" t="s" s="12">
+      <c r="D16" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E16" t="s" s="12">
+      <c r="E16" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F16" t="s" s="12">
+      <c r="F16" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G16" t="s" s="12">
+      <c r="G16" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H16" t="s" s="12">
+      <c r="H16" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -688,28 +706,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="B18" t="s" s="12">
+      <c r="B18" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C18" t="s" s="12">
+      <c r="C18" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D18" t="s" s="12">
+      <c r="D18" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E18" t="s" s="12">
+      <c r="E18" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F18" t="s" s="12">
+      <c r="F18" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G18" t="s" s="12">
+      <c r="G18" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H18" t="s" s="12">
+      <c r="H18" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I18" t="s" s="12">
+      <c r="I18" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -971,10 +989,10 @@
       <c r="I27">
         <f>((C27-C26)^2+(D27- D26)^2)^.5</f>
       </c>
-      <c r="J27" s="12" t="s">
+      <c r="J27" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K27" s="12" t="s">
+      <c r="K27" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L27" t="n">
@@ -1018,28 +1036,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="12">
+      <c r="A29" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B29" t="s" s="12">
+      <c r="B29" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C29" t="s" s="12">
+      <c r="C29" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D29" t="s" s="12">
+      <c r="D29" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E29" t="s" s="12">
+      <c r="E29" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F29" t="s" s="12">
+      <c r="F29" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G29" t="s" s="12">
+      <c r="G29" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H29" t="s" s="12">
+      <c r="H29" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1064,28 +1082,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="B31" t="s" s="12">
+      <c r="B31" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C31" t="s" s="12">
+      <c r="C31" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D31" t="s" s="12">
+      <c r="D31" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E31" t="s" s="12">
+      <c r="E31" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F31" t="s" s="12">
+      <c r="F31" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G31" t="s" s="12">
+      <c r="G31" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H31" t="s" s="12">
+      <c r="H31" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I31" t="s" s="12">
+      <c r="I31" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1347,10 +1365,10 @@
       <c r="I40">
         <f>((C40-C39)^2+(D40- D39)^2)^.5</f>
       </c>
-      <c r="J40" s="12" t="s">
+      <c r="J40" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K40" s="12" t="s">
+      <c r="K40" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L40" t="n">
@@ -1394,28 +1412,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="12">
+      <c r="A42" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B42" t="s" s="12">
+      <c r="B42" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C42" t="s" s="12">
+      <c r="C42" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D42" t="s" s="12">
+      <c r="D42" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E42" t="s" s="12">
+      <c r="E42" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F42" t="s" s="12">
+      <c r="F42" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G42" t="s" s="12">
+      <c r="G42" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H42" t="s" s="12">
+      <c r="H42" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1440,28 +1458,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="B44" t="s" s="12">
+      <c r="B44" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C44" t="s" s="12">
+      <c r="C44" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D44" t="s" s="12">
+      <c r="D44" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E44" t="s" s="12">
+      <c r="E44" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F44" t="s" s="12">
+      <c r="F44" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G44" t="s" s="12">
+      <c r="G44" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H44" t="s" s="12">
+      <c r="H44" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I44" t="s" s="12">
+      <c r="I44" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1694,10 +1712,10 @@
       <c r="I52">
         <f>((C52-C51)^2+(D52- D51)^2)^.5</f>
       </c>
-      <c r="J52" s="12" t="s">
+      <c r="J52" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K52" s="12" t="s">
+      <c r="K52" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L52" t="n">
@@ -1741,28 +1759,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="s" s="12">
+      <c r="A54" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B54" t="s" s="12">
+      <c r="B54" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C54" t="s" s="12">
+      <c r="C54" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D54" t="s" s="12">
+      <c r="D54" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E54" t="s" s="12">
+      <c r="E54" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F54" t="s" s="12">
+      <c r="F54" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G54" t="s" s="12">
+      <c r="G54" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H54" t="s" s="12">
+      <c r="H54" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1787,28 +1805,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="B56" t="s" s="12">
+      <c r="B56" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C56" t="s" s="12">
+      <c r="C56" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D56" t="s" s="12">
+      <c r="D56" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E56" t="s" s="12">
+      <c r="E56" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F56" t="s" s="12">
+      <c r="F56" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G56" t="s" s="12">
+      <c r="G56" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H56" t="s" s="12">
+      <c r="H56" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I56" t="s" s="12">
+      <c r="I56" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1954,10 +1972,10 @@
       <c r="I61">
         <f>((C61-C60)^2+(D61- D60)^2)^.5</f>
       </c>
-      <c r="J61" s="12" t="s">
+      <c r="J61" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K61" s="12" t="s">
+      <c r="K61" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L61" t="n">
@@ -2001,28 +2019,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="s" s="12">
+      <c r="A63" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B63" t="s" s="12">
+      <c r="B63" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C63" t="s" s="12">
+      <c r="C63" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D63" t="s" s="12">
+      <c r="D63" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E63" t="s" s="12">
+      <c r="E63" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F63" t="s" s="12">
+      <c r="F63" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G63" t="s" s="12">
+      <c r="G63" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H63" t="s" s="12">
+      <c r="H63" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2047,28 +2065,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="B65" t="s" s="12">
+      <c r="B65" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C65" t="s" s="12">
+      <c r="C65" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D65" t="s" s="12">
+      <c r="D65" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E65" t="s" s="12">
+      <c r="E65" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F65" t="s" s="12">
+      <c r="F65" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G65" t="s" s="12">
+      <c r="G65" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H65" t="s" s="12">
+      <c r="H65" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I65" t="s" s="12">
+      <c r="I65" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2330,10 +2348,10 @@
       <c r="I74">
         <f>((C74-C73)^2+(D74- D73)^2)^.5</f>
       </c>
-      <c r="J74" s="12" t="s">
+      <c r="J74" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K74" s="12" t="s">
+      <c r="K74" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L74" t="n">
@@ -2377,28 +2395,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s" s="12">
+      <c r="A76" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B76" t="s" s="12">
+      <c r="B76" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C76" t="s" s="12">
+      <c r="C76" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D76" t="s" s="12">
+      <c r="D76" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E76" t="s" s="12">
+      <c r="E76" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F76" t="s" s="12">
+      <c r="F76" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G76" t="s" s="12">
+      <c r="G76" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H76" t="s" s="12">
+      <c r="H76" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2423,28 +2441,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="B78" t="s" s="12">
+      <c r="B78" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C78" t="s" s="12">
+      <c r="C78" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D78" t="s" s="12">
+      <c r="D78" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E78" t="s" s="12">
+      <c r="E78" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F78" t="s" s="12">
+      <c r="F78" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G78" t="s" s="12">
+      <c r="G78" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H78" t="s" s="12">
+      <c r="H78" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I78" t="s" s="12">
+      <c r="I78" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2677,10 +2695,10 @@
       <c r="I86">
         <f>((C86-C85)^2+(D86- D85)^2)^.5</f>
       </c>
-      <c r="J86" s="12" t="s">
+      <c r="J86" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K86" s="12" t="s">
+      <c r="K86" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L86" t="n">
@@ -2724,28 +2742,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="s" s="12">
+      <c r="A88" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B88" t="s" s="12">
+      <c r="B88" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C88" t="s" s="12">
+      <c r="C88" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D88" t="s" s="12">
+      <c r="D88" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E88" t="s" s="12">
+      <c r="E88" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F88" t="s" s="12">
+      <c r="F88" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G88" t="s" s="12">
+      <c r="G88" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H88" t="s" s="12">
+      <c r="H88" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2770,28 +2788,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="B90" t="s" s="12">
+      <c r="B90" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C90" t="s" s="12">
+      <c r="C90" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D90" t="s" s="12">
+      <c r="D90" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E90" t="s" s="12">
+      <c r="E90" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F90" t="s" s="12">
+      <c r="F90" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G90" t="s" s="12">
+      <c r="G90" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H90" t="s" s="12">
+      <c r="H90" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I90" t="s" s="12">
+      <c r="I90" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2966,10 +2984,10 @@
       <c r="I96">
         <f>((C96-C95)^2+(D96- D95)^2)^.5</f>
       </c>
-      <c r="J96" s="12" t="s">
+      <c r="J96" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K96" s="12" t="s">
+      <c r="K96" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L96" t="n">
@@ -3013,28 +3031,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="s" s="12">
+      <c r="A98" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B98" t="s" s="12">
+      <c r="B98" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C98" t="s" s="12">
+      <c r="C98" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D98" t="s" s="12">
+      <c r="D98" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E98" t="s" s="12">
+      <c r="E98" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F98" t="s" s="12">
+      <c r="F98" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G98" t="s" s="12">
+      <c r="G98" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H98" t="s" s="12">
+      <c r="H98" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3059,28 +3077,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="B100" t="s" s="12">
+      <c r="B100" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C100" t="s" s="12">
+      <c r="C100" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D100" t="s" s="12">
+      <c r="D100" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E100" t="s" s="12">
+      <c r="E100" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F100" t="s" s="12">
+      <c r="F100" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G100" t="s" s="12">
+      <c r="G100" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H100" t="s" s="12">
+      <c r="H100" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I100" t="s" s="12">
+      <c r="I100" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3313,10 +3331,10 @@
       <c r="I108">
         <f>((C108-C107)^2+(D108- D107)^2)^.5</f>
       </c>
-      <c r="J108" s="12" t="s">
+      <c r="J108" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K108" s="12" t="s">
+      <c r="K108" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L108" t="n">
@@ -3360,28 +3378,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="s" s="12">
+      <c r="A110" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B110" t="s" s="12">
+      <c r="B110" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C110" t="s" s="12">
+      <c r="C110" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D110" t="s" s="12">
+      <c r="D110" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E110" t="s" s="12">
+      <c r="E110" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F110" t="s" s="12">
+      <c r="F110" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G110" t="s" s="12">
+      <c r="G110" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H110" t="s" s="12">
+      <c r="H110" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3406,28 +3424,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="B112" t="s" s="12">
+      <c r="B112" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C112" t="s" s="12">
+      <c r="C112" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D112" t="s" s="12">
+      <c r="D112" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E112" t="s" s="12">
+      <c r="E112" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F112" t="s" s="12">
+      <c r="F112" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G112" t="s" s="12">
+      <c r="G112" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H112" t="s" s="12">
+      <c r="H112" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I112" t="s" s="12">
+      <c r="I112" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3689,10 +3707,10 @@
       <c r="I121">
         <f>((C121-C120)^2+(D121- D120)^2)^.5</f>
       </c>
-      <c r="J121" s="12" t="s">
+      <c r="J121" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K121" s="12" t="s">
+      <c r="K121" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L121" t="n">
@@ -3736,28 +3754,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="s" s="12">
+      <c r="A123" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B123" t="s" s="12">
+      <c r="B123" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C123" t="s" s="12">
+      <c r="C123" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D123" t="s" s="12">
+      <c r="D123" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E123" t="s" s="12">
+      <c r="E123" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F123" t="s" s="12">
+      <c r="F123" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G123" t="s" s="12">
+      <c r="G123" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H123" t="s" s="12">
+      <c r="H123" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3782,28 +3800,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="B125" t="s" s="12">
+      <c r="B125" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C125" t="s" s="12">
+      <c r="C125" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D125" t="s" s="12">
+      <c r="D125" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E125" t="s" s="12">
+      <c r="E125" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F125" t="s" s="12">
+      <c r="F125" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G125" t="s" s="12">
+      <c r="G125" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H125" t="s" s="12">
+      <c r="H125" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I125" t="s" s="12">
+      <c r="I125" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4036,10 +4054,10 @@
       <c r="I133">
         <f>((C133-C132)^2+(D133- D132)^2)^.5</f>
       </c>
-      <c r="J133" s="12" t="s">
+      <c r="J133" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K133" s="12" t="s">
+      <c r="K133" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L133" t="n">
@@ -4083,28 +4101,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="s" s="12">
+      <c r="A135" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B135" t="s" s="12">
+      <c r="B135" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C135" t="s" s="12">
+      <c r="C135" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D135" t="s" s="12">
+      <c r="D135" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E135" t="s" s="12">
+      <c r="E135" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F135" t="s" s="12">
+      <c r="F135" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G135" t="s" s="12">
+      <c r="G135" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H135" t="s" s="12">
+      <c r="H135" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4129,28 +4147,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="B137" t="s" s="12">
+      <c r="B137" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C137" t="s" s="12">
+      <c r="C137" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D137" t="s" s="12">
+      <c r="D137" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E137" t="s" s="12">
+      <c r="E137" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F137" t="s" s="12">
+      <c r="F137" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G137" t="s" s="12">
+      <c r="G137" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H137" t="s" s="12">
+      <c r="H137" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I137" t="s" s="12">
+      <c r="I137" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4383,10 +4401,10 @@
       <c r="I145">
         <f>((C145-C144)^2+(D145- D144)^2)^.5</f>
       </c>
-      <c r="J145" s="12" t="s">
+      <c r="J145" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K145" s="12" t="s">
+      <c r="K145" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L145" t="n">
@@ -4430,28 +4448,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="s" s="12">
+      <c r="A147" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B147" t="s" s="12">
+      <c r="B147" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C147" t="s" s="12">
+      <c r="C147" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D147" t="s" s="12">
+      <c r="D147" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E147" t="s" s="12">
+      <c r="E147" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F147" t="s" s="12">
+      <c r="F147" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G147" t="s" s="12">
+      <c r="G147" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H147" t="s" s="12">
+      <c r="H147" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4476,28 +4494,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="B149" t="s" s="12">
+      <c r="B149" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C149" t="s" s="12">
+      <c r="C149" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D149" t="s" s="12">
+      <c r="D149" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E149" t="s" s="12">
+      <c r="E149" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F149" t="s" s="12">
+      <c r="F149" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G149" t="s" s="12">
+      <c r="G149" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H149" t="s" s="12">
+      <c r="H149" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I149" t="s" s="12">
+      <c r="I149" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4701,10 +4719,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="12" t="s">
+      <c r="J156" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K156" s="12" t="s">
+      <c r="K156" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
@@ -4748,28 +4766,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="s" s="12">
+      <c r="A158" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B158" t="s" s="12">
+      <c r="B158" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C158" t="s" s="12">
+      <c r="C158" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D158" t="s" s="12">
+      <c r="D158" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E158" t="s" s="12">
+      <c r="E158" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F158" t="s" s="12">
+      <c r="F158" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G158" t="s" s="12">
+      <c r="G158" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H158" t="s" s="12">
+      <c r="H158" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4794,28 +4812,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="B160" t="s" s="12">
+      <c r="B160" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C160" t="s" s="12">
+      <c r="C160" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D160" t="s" s="12">
+      <c r="D160" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E160" t="s" s="12">
+      <c r="E160" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F160" t="s" s="12">
+      <c r="F160" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G160" t="s" s="12">
+      <c r="G160" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H160" t="s" s="12">
+      <c r="H160" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I160" t="s" s="12">
+      <c r="I160" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4990,10 +5008,10 @@
       <c r="I166">
         <f>((C166-C165)^2+(D166- D165)^2)^.5</f>
       </c>
-      <c r="J166" s="12" t="s">
+      <c r="J166" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K166" s="12" t="s">
+      <c r="K166" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L166" t="n">
@@ -5037,28 +5055,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="s" s="12">
+      <c r="A168" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B168" t="s" s="12">
+      <c r="B168" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C168" t="s" s="12">
+      <c r="C168" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D168" t="s" s="12">
+      <c r="D168" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E168" t="s" s="12">
+      <c r="E168" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F168" t="s" s="12">
+      <c r="F168" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G168" t="s" s="12">
+      <c r="G168" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H168" t="s" s="12">
+      <c r="H168" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5083,28 +5101,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="B170" t="s" s="12">
+      <c r="B170" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C170" t="s" s="12">
+      <c r="C170" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D170" t="s" s="12">
+      <c r="D170" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E170" t="s" s="12">
+      <c r="E170" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F170" t="s" s="12">
+      <c r="F170" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G170" t="s" s="12">
+      <c r="G170" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H170" t="s" s="12">
+      <c r="H170" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I170" t="s" s="12">
+      <c r="I170" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5250,10 +5268,10 @@
       <c r="I175">
         <f>((C175-C174)^2+(D175- D174)^2)^.5</f>
       </c>
-      <c r="J175" s="12" t="s">
+      <c r="J175" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K175" s="12" t="s">
+      <c r="K175" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L175" t="n">
@@ -5297,28 +5315,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="s" s="12">
+      <c r="A177" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B177" t="s" s="12">
+      <c r="B177" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C177" t="s" s="12">
+      <c r="C177" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D177" t="s" s="12">
+      <c r="D177" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E177" t="s" s="12">
+      <c r="E177" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F177" t="s" s="12">
+      <c r="F177" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G177" t="s" s="12">
+      <c r="G177" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H177" t="s" s="12">
+      <c r="H177" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5343,28 +5361,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="B179" t="s" s="12">
+      <c r="B179" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C179" t="s" s="12">
+      <c r="C179" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D179" t="s" s="12">
+      <c r="D179" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E179" t="s" s="12">
+      <c r="E179" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F179" t="s" s="12">
+      <c r="F179" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G179" t="s" s="12">
+      <c r="G179" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H179" t="s" s="12">
+      <c r="H179" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I179" t="s" s="12">
+      <c r="I179" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5423,10 +5441,10 @@
       <c r="I181">
         <f>((C181-C180)^2+(D181- D180)^2)^.5</f>
       </c>
-      <c r="J181" s="12" t="s">
+      <c r="J181" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K181" s="12" t="s">
+      <c r="K181" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L181" t="n">
